--- a/data/trans_orig/P5705-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5705-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>550856</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>519747</v>
+        <v>518235</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>584320</v>
+        <v>581090</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5339186129710264</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5037660835983652</v>
+        <v>0.5023005416344598</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5663533684226575</v>
+        <v>0.5632229518006974</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>678</v>
@@ -765,19 +765,19 @@
         <v>685457</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>647799</v>
+        <v>650881</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>722321</v>
+        <v>721895</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.521215148948618</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4925804027189243</v>
+        <v>0.4949238222050116</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5492464645325872</v>
+        <v>0.5489226783302534</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1237</v>
@@ -786,19 +786,19 @@
         <v>1236312</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1193525</v>
+        <v>1188479</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1285885</v>
+        <v>1282627</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5267998838544397</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5085680579492645</v>
+        <v>0.5064177440578355</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5479230396875931</v>
+        <v>0.5465347449169883</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>271561</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>245310</v>
+        <v>245040</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>299136</v>
+        <v>299478</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2632106999129957</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2377668638554002</v>
+        <v>0.2375056051966055</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.289937889029578</v>
+        <v>0.2902697206228191</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>346</v>
@@ -836,19 +836,19 @@
         <v>354473</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>321196</v>
+        <v>324636</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>385586</v>
+        <v>389381</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2695383713587481</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2442344519062582</v>
+        <v>0.2468504313263977</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2931958644099278</v>
+        <v>0.2960820108432686</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>619</v>
@@ -857,19 +857,19 @@
         <v>626034</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>585587</v>
+        <v>587639</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>664623</v>
+        <v>665504</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2667565814836929</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2495218936182521</v>
+        <v>0.2503963706157663</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2831997432354962</v>
+        <v>0.283575093520712</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>142117</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>120238</v>
+        <v>120922</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>163730</v>
+        <v>165013</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1377467798852494</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1165405722621461</v>
+        <v>0.117203815168732</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1586954850324058</v>
+        <v>0.1599391765948627</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>188</v>
@@ -907,19 +907,19 @@
         <v>194095</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>170626</v>
+        <v>169843</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>221868</v>
+        <v>219711</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1475884454551335</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.129742388305943</v>
+        <v>0.1291467376620594</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1687065176235137</v>
+        <v>0.1670662088186778</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>329</v>
@@ -928,19 +928,19 @@
         <v>336212</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>302166</v>
+        <v>302891</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>371056</v>
+        <v>371238</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.143261822957317</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1287545133858951</v>
+        <v>0.1290634937954134</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1581089994941308</v>
+        <v>0.1581867561493864</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>58980</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45775</v>
+        <v>45478</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77982</v>
+        <v>76134</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05716687744893054</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04436718631028723</v>
+        <v>0.04407992380313903</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07558445532501523</v>
+        <v>0.0737925949744118</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>69</v>
@@ -978,19 +978,19 @@
         <v>71041</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56075</v>
+        <v>56687</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>88074</v>
+        <v>87977</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05401870257346324</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04263885696179261</v>
+        <v>0.04310393663640456</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06697080568530514</v>
+        <v>0.06689672507551619</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>127</v>
@@ -999,19 +999,19 @@
         <v>130021</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>109990</v>
+        <v>109776</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>152828</v>
+        <v>153757</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05540271264234205</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04686740416658942</v>
+        <v>0.04677619495833319</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06512090212058123</v>
+        <v>0.06551662868673622</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>8209</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3678</v>
+        <v>3569</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17993</v>
+        <v>17182</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.007957029781797942</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003564944070939506</v>
+        <v>0.003459000857651987</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01744013147291432</v>
+        <v>0.01665350488402501</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -1049,19 +1049,19 @@
         <v>10047</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5086</v>
+        <v>5033</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18307</v>
+        <v>17608</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.007639331664037165</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003867589235199994</v>
+        <v>0.003827340181272071</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01392046521594152</v>
+        <v>0.01338879775162324</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>17</v>
@@ -1070,19 +1070,19 @@
         <v>18256</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11477</v>
+        <v>11557</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>28966</v>
+        <v>30299</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007778999062208461</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004890616411135968</v>
+        <v>0.004924319819886826</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01234242859189728</v>
+        <v>0.01291072664829866</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>1093130</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1052460</v>
+        <v>1053970</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1134134</v>
+        <v>1131123</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6455185666337305</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6215022931611964</v>
+        <v>0.6223940869260511</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.669732671438112</v>
+        <v>0.667954851532244</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>974</v>
@@ -1195,19 +1195,19 @@
         <v>989020</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>952744</v>
+        <v>949325</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1027527</v>
+        <v>1028449</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6237127614432804</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.600835840023128</v>
+        <v>0.5986796283422731</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.647996754096995</v>
+        <v>0.6485780292840666</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2028</v>
@@ -1216,19 +1216,19 @@
         <v>2082150</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2019165</v>
+        <v>2018516</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2136680</v>
+        <v>2133966</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6349738099995095</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6157658497099622</v>
+        <v>0.6155679610106876</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6516034340525859</v>
+        <v>0.6507758058609436</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>453381</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>412273</v>
+        <v>418999</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>487856</v>
+        <v>485693</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2677318095695571</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2434570815614754</v>
+        <v>0.2474287361900961</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2880901374355931</v>
+        <v>0.2868129944949392</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>428</v>
@@ -1266,19 +1266,19 @@
         <v>436417</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>404709</v>
+        <v>398695</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>473604</v>
+        <v>470517</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.275220713792688</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2552246016885209</v>
+        <v>0.2514317781655721</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2986724454854067</v>
+        <v>0.2967255033916451</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>877</v>
@@ -1287,19 +1287,19 @@
         <v>889797</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>838767</v>
+        <v>839295</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>942232</v>
+        <v>945834</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2713532613710475</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2557909264967098</v>
+        <v>0.2559518931539528</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2873438263978129</v>
+        <v>0.2884421663816251</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>122446</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>102961</v>
+        <v>102719</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>148371</v>
+        <v>144345</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07230737280364306</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06080108767403594</v>
+        <v>0.06065769626745771</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08761665192949145</v>
+        <v>0.08523914792838451</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>123</v>
@@ -1337,19 +1337,19 @@
         <v>128939</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>107555</v>
+        <v>107722</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>149676</v>
+        <v>150868</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08131365257253789</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06782831400472696</v>
+        <v>0.06793326747727454</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09439101797425449</v>
+        <v>0.09514274534467196</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>245</v>
@@ -1358,19 +1358,19 @@
         <v>251385</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>223010</v>
+        <v>220340</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>283980</v>
+        <v>278606</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07666259048596449</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06800930553148289</v>
+        <v>0.06719496654522657</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08660262107567535</v>
+        <v>0.0849637717189187</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>21924</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14659</v>
+        <v>13789</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32952</v>
+        <v>31267</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01294653291437196</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008656450249046941</v>
+        <v>0.008142592055339536</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0194591876720863</v>
+        <v>0.01846362578268788</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -1408,19 +1408,19 @@
         <v>29023</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18550</v>
+        <v>19359</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41831</v>
+        <v>42404</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01830287453691279</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01169841811008938</v>
+        <v>0.01220866840971758</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02638019452872769</v>
+        <v>0.02674163836547912</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>47</v>
@@ -1429,19 +1429,19 @@
         <v>50947</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37033</v>
+        <v>38346</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>66924</v>
+        <v>67181</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0155367293490433</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01129350899376159</v>
+        <v>0.01169391837186605</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02040904844557421</v>
+        <v>0.02048754232637051</v>
       </c>
     </row>
     <row r="14">
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9160</v>
+        <v>8597</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001495718078697374</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.005409108499075659</v>
+        <v>0.005076740716086535</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7953</v>
+        <v>6857</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001449997654580905</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.005015421781090362</v>
+        <v>0.004324432576560581</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -1500,19 +1500,19 @@
         <v>4832</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1227</v>
+        <v>1107</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11923</v>
+        <v>12270</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001473608794435187</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0003741550555571451</v>
+        <v>0.0003374433166995394</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.003636159479662089</v>
+        <v>0.003741972428518725</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>361439</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>338987</v>
+        <v>340189</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>384383</v>
+        <v>384795</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6554841665250379</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.614765710390089</v>
+        <v>0.6169461929357098</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6970944319858665</v>
+        <v>0.6978412361293835</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>303</v>
@@ -1625,19 +1625,19 @@
         <v>319314</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>297654</v>
+        <v>297321</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>341863</v>
+        <v>340955</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6702478908354477</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6247830448397109</v>
+        <v>0.6240828787422051</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7175794845054533</v>
+        <v>0.7156732847952992</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>650</v>
@@ -1646,19 +1646,19 @@
         <v>680753</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>648148</v>
+        <v>648741</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>710545</v>
+        <v>710694</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6623274007378513</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6306047711871515</v>
+        <v>0.6311817330026249</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6913125747311846</v>
+        <v>0.6914580080376451</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>139029</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>119648</v>
+        <v>118515</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>160063</v>
+        <v>158395</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2521339135436941</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2169858994333823</v>
+        <v>0.2149317929958604</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2902796770955946</v>
+        <v>0.287255048024096</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>114</v>
@@ -1696,19 +1696,19 @@
         <v>118788</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>98612</v>
+        <v>100337</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>138925</v>
+        <v>139962</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.24933848329517</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.206989233399115</v>
+        <v>0.2106093072617983</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2916072025612211</v>
+        <v>0.2937824851601702</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>247</v>
@@ -1717,19 +1717,19 @@
         <v>257817</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>229820</v>
+        <v>228945</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>283746</v>
+        <v>285375</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2508381846670213</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2235990219086106</v>
+        <v>0.2227478021369392</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2760662972389172</v>
+        <v>0.2776509524272934</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>40624</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28018</v>
+        <v>29352</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>54000</v>
+        <v>55027</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07367376079135317</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.050811389683731</v>
+        <v>0.05323038404287603</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09793165715533482</v>
+        <v>0.09979406971107041</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -1767,19 +1767,19 @@
         <v>28934</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20555</v>
+        <v>19394</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>41506</v>
+        <v>40164</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06073374650919345</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04314476381372997</v>
+        <v>0.04070821085324874</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08712289853614254</v>
+        <v>0.08430433423580513</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>64</v>
@@ -1788,19 +1788,19 @@
         <v>69559</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>53952</v>
+        <v>54127</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>88091</v>
+        <v>89031</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06767584681056088</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05249171250884477</v>
+        <v>0.05266183344930249</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08570709894789383</v>
+        <v>0.08662121217342333</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>9482</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4162</v>
+        <v>4727</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17450</v>
+        <v>18945</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01719555714586095</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007547499955071248</v>
+        <v>0.008572316001933608</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03164658347796045</v>
+        <v>0.03435759144059546</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -1838,19 +1838,19 @@
         <v>9376</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4176</v>
+        <v>4432</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17331</v>
+        <v>18299</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01967987936018883</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008766176569804326</v>
+        <v>0.009303434516947519</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03637810494462158</v>
+        <v>0.03841018930563867</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -1859,19 +1859,19 @@
         <v>18857</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10437</v>
+        <v>11378</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>30560</v>
+        <v>30429</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0183470822228196</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01015460680914489</v>
+        <v>0.01106960827877966</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02973283522808635</v>
+        <v>0.02960500129128712</v>
       </c>
     </row>
     <row r="20">
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4259</v>
+        <v>3400</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001512601994053799</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.007723948424250922</v>
+        <v>0.006165142673557334</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5005</v>
+        <v>4197</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0008114855617467895</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.004869796238428975</v>
+        <v>0.004083326872840088</v>
       </c>
     </row>
     <row r="21">
@@ -2026,19 +2026,19 @@
         <v>2005424</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1944373</v>
+        <v>1949419</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2061562</v>
+        <v>2060666</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6120549133873263</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5934222136161734</v>
+        <v>0.5949621806779332</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6291881156797001</v>
+        <v>0.6289147261475633</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1955</v>
@@ -2047,19 +2047,19 @@
         <v>1993790</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1930948</v>
+        <v>1938288</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2050418</v>
+        <v>2051008</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5903640460225051</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5717563781875729</v>
+        <v>0.5739296662163386</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6071316237695824</v>
+        <v>0.6073061016421554</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3915</v>
@@ -2068,19 +2068,19 @@
         <v>3999215</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3924579</v>
+        <v>3916376</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4081757</v>
+        <v>4081639</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6010453759708304</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5898282910355884</v>
+        <v>0.5885953565582496</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6134506108769638</v>
+        <v>0.6134329536900672</v>
       </c>
     </row>
     <row r="23">
@@ -2097,19 +2097,19 @@
         <v>863969</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>810394</v>
+        <v>813751</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>912642</v>
+        <v>910866</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2636832332997717</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2473320501986117</v>
+        <v>0.2483564693196915</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2785380235239051</v>
+        <v>0.2779960355660674</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>888</v>
@@ -2118,19 +2118,19 @@
         <v>909678</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>857186</v>
+        <v>858948</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>964204</v>
+        <v>966313</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2693568666074196</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2538138649226577</v>
+        <v>0.2543357485241541</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2855021540646783</v>
+        <v>0.2861265629358515</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1743</v>
@@ -2139,19 +2139,19 @@
         <v>1773648</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1698765</v>
+        <v>1701937</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1844363</v>
+        <v>1849385</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.26656297421273</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2553087761042391</v>
+        <v>0.255785568718145</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2771908764217783</v>
+        <v>0.2779456063947098</v>
       </c>
     </row>
     <row r="24">
@@ -2168,19 +2168,19 @@
         <v>305187</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>271370</v>
+        <v>272277</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>337566</v>
+        <v>340464</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09314297938788026</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.082822084007525</v>
+        <v>0.08309890641583925</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1030250330943868</v>
+        <v>0.1039094071974113</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>338</v>
@@ -2189,19 +2189,19 @@
         <v>351969</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>315632</v>
+        <v>320620</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>390196</v>
+        <v>387894</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1042183659702964</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09345905079474084</v>
+        <v>0.09493614852161682</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1155376998201583</v>
+        <v>0.1148558285518328</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>638</v>
@@ -2210,19 +2210,19 @@
         <v>657156</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>609961</v>
+        <v>607693</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>706660</v>
+        <v>710311</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09876446427045459</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09167161365626315</v>
+        <v>0.09133066750779412</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1062045062734892</v>
+        <v>0.1067532987211555</v>
       </c>
     </row>
     <row r="25">
@@ -2239,19 +2239,19 @@
         <v>90386</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>72910</v>
+        <v>73343</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>112049</v>
+        <v>112489</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02758576702451187</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02225220187229407</v>
+        <v>0.02238433996648065</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03419734533375488</v>
+        <v>0.03433159576917011</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>102</v>
@@ -2260,19 +2260,19 @@
         <v>109439</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>89312</v>
+        <v>89481</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>130894</v>
+        <v>133218</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03240510186010191</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02644553363816004</v>
+        <v>0.02649555494785463</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03875801966303109</v>
+        <v>0.03944591827535218</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>191</v>
@@ -2281,19 +2281,19 @@
         <v>199825</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>171148</v>
+        <v>172787</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>231624</v>
+        <v>229581</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03003189544817751</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02572190471726475</v>
+        <v>0.02596834321555491</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03481093665360531</v>
+        <v>0.03450389547828536</v>
       </c>
     </row>
     <row r="26">
@@ -2310,19 +2310,19 @@
         <v>11576</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5620</v>
+        <v>5726</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21731</v>
+        <v>22706</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003533106900509927</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001715101318933501</v>
+        <v>0.001747611803451261</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.00663243971616529</v>
+        <v>0.006929955121771099</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -2331,19 +2331,19 @@
         <v>12346</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7017</v>
+        <v>6409</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>20726</v>
+        <v>19735</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.003655619539676932</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002077794074017009</v>
+        <v>0.001897601999769693</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.006137014713721458</v>
+        <v>0.0058435292200173</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>22</v>
@@ -2352,19 +2352,19 @@
         <v>23922</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>14835</v>
+        <v>15333</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>35033</v>
+        <v>38130</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00359529009780753</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002229537534967416</v>
+        <v>0.002304346202771824</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.005265080524142774</v>
+        <v>0.005730542767665757</v>
       </c>
     </row>
     <row r="27">
@@ -2695,19 +2695,19 @@
         <v>584241</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>551166</v>
+        <v>552097</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>614230</v>
+        <v>617066</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6037360795300756</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5695578567452885</v>
+        <v>0.5705199985297977</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6347258416295042</v>
+        <v>0.6376565918562895</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>731</v>
@@ -2716,19 +2716,19 @@
         <v>781542</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>741281</v>
+        <v>744186</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>819794</v>
+        <v>819434</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5864801484677621</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5562676936543332</v>
+        <v>0.5584476659559797</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6151851400674593</v>
+        <v>0.6149151793392408</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1276</v>
@@ -2737,19 +2737,19 @@
         <v>1365783</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1317714</v>
+        <v>1316728</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1416543</v>
+        <v>1410774</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5937394935770043</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5728427092353547</v>
+        <v>0.5724143357721865</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6158064483242515</v>
+        <v>0.6132986034363856</v>
       </c>
     </row>
     <row r="5">
@@ -2766,19 +2766,19 @@
         <v>257141</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>230240</v>
+        <v>228219</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>288293</v>
+        <v>285998</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2657214057449284</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2379222518217858</v>
+        <v>0.2358344271030674</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2979133480931336</v>
+        <v>0.2955412525855659</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>364</v>
@@ -2787,19 +2787,19 @@
         <v>390244</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>356433</v>
+        <v>354368</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>424247</v>
+        <v>422359</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2928449254287696</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2674721397335766</v>
+        <v>0.265922805761735</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3183607363482169</v>
+        <v>0.316944291075937</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>602</v>
@@ -2808,19 +2808,19 @@
         <v>647385</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>604066</v>
+        <v>603446</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>690164</v>
+        <v>691203</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2814344145005966</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.262602579202478</v>
+        <v>0.262332739660312</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3000315459083479</v>
+        <v>0.3004830047117047</v>
       </c>
     </row>
     <row r="6">
@@ -2837,19 +2837,19 @@
         <v>96917</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>80026</v>
+        <v>79554</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>119072</v>
+        <v>119742</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1001506685633399</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08269607000126801</v>
+        <v>0.08220823200791513</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1230453841585471</v>
+        <v>0.12373731001907</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>110</v>
@@ -2858,19 +2858,19 @@
         <v>122061</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>101471</v>
+        <v>101957</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>147557</v>
+        <v>145143</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09159635319816783</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07614540064816397</v>
+        <v>0.07650972900893233</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1107285450206434</v>
+        <v>0.1089172966790595</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>200</v>
@@ -2879,19 +2879,19 @@
         <v>218978</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>188325</v>
+        <v>189881</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>247135</v>
+        <v>249420</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09519504208866181</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0818696458917299</v>
+        <v>0.08254590722422568</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1074357493204778</v>
+        <v>0.1084289717754527</v>
       </c>
     </row>
     <row r="7">
@@ -2908,19 +2908,19 @@
         <v>19624</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11592</v>
+        <v>12359</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30504</v>
+        <v>30792</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02027929971722712</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01197866328947667</v>
+        <v>0.0127717920606647</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03152216922609351</v>
+        <v>0.03181927008455602</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -2929,19 +2929,19 @@
         <v>27874</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18955</v>
+        <v>18594</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39975</v>
+        <v>40025</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02091690270676213</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01422390564115391</v>
+        <v>0.01395354802376488</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02999795638927458</v>
+        <v>0.03003521059359287</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -2950,19 +2950,19 @@
         <v>47498</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35708</v>
+        <v>35240</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62429</v>
+        <v>63193</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02064867144604344</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01552305131513211</v>
+        <v>0.0153197308179021</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02713949586863194</v>
+        <v>0.02747169646350434</v>
       </c>
     </row>
     <row r="8">
@@ -2979,19 +2979,19 @@
         <v>9786</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4108</v>
+        <v>4641</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18542</v>
+        <v>18318</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01011254644442898</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004244586441769812</v>
+        <v>0.004796302692320501</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01916086085819549</v>
+        <v>0.01892955478867406</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -3000,19 +3000,19 @@
         <v>10876</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5783</v>
+        <v>5846</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18788</v>
+        <v>18740</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.008161670198538303</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004339581992214877</v>
+        <v>0.004386575031730453</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01409850870865583</v>
+        <v>0.01406284939645766</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>20</v>
@@ -3021,19 +3021,19 @@
         <v>20662</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12750</v>
+        <v>13039</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>31767</v>
+        <v>31695</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.008982378387693791</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005542780866765363</v>
+        <v>0.005668529357214439</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01380972354975695</v>
+        <v>0.0137784312967846</v>
       </c>
     </row>
     <row r="9">
@@ -3125,19 +3125,19 @@
         <v>1340091</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1298042</v>
+        <v>1300023</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1382552</v>
+        <v>1386762</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6831268435251585</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6616922522725516</v>
+        <v>0.6627020604436391</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7047722180301994</v>
+        <v>0.7069181664828988</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1068</v>
@@ -3146,19 +3146,19 @@
         <v>1148203</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1106664</v>
+        <v>1105978</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1188174</v>
+        <v>1185920</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6543763159214694</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6307025716340766</v>
+        <v>0.6303117550873643</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6771562082738197</v>
+        <v>0.6758716939121214</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2337</v>
@@ -3167,19 +3167,19 @@
         <v>2488295</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2421689</v>
+        <v>2425651</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2543048</v>
+        <v>2546633</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6695524639053636</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.651630190226399</v>
+        <v>0.6526961358536362</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6842856285686153</v>
+        <v>0.6852502073171289</v>
       </c>
     </row>
     <row r="11">
@@ -3196,19 +3196,19 @@
         <v>454456</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>419616</v>
+        <v>416248</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>493192</v>
+        <v>491907</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2316640279971509</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.213904025850435</v>
+        <v>0.2121874207056356</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.251410363363584</v>
+        <v>0.2507551668535307</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>422</v>
@@ -3217,19 +3217,19 @@
         <v>453493</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>417880</v>
+        <v>418575</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>492582</v>
+        <v>491037</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2584518138688535</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2381554990214089</v>
+        <v>0.2385517069448047</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2807287427162139</v>
+        <v>0.2798486951448126</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>854</v>
@@ -3238,19 +3238,19 @@
         <v>907949</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>855073</v>
+        <v>853628</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>965136</v>
+        <v>960862</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2443117115321693</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2300839088164363</v>
+        <v>0.229694948694169</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2596995752174698</v>
+        <v>0.258549617949027</v>
       </c>
     </row>
     <row r="12">
@@ -3267,19 +3267,19 @@
         <v>142593</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>119373</v>
+        <v>120975</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>165762</v>
+        <v>169159</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07268828155045605</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06085190397137694</v>
+        <v>0.06166847116037937</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08449911224320955</v>
+        <v>0.08623065461390839</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>115</v>
@@ -3288,19 +3288,19 @@
         <v>121956</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>101556</v>
+        <v>102923</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>145889</v>
+        <v>145707</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06950447020638621</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05787835617297115</v>
+        <v>0.05865725457746183</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08314401149770226</v>
+        <v>0.08304059329396452</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>246</v>
@@ -3309,19 +3309,19 @@
         <v>264549</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>231646</v>
+        <v>234727</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>295645</v>
+        <v>300139</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0711850651775966</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06233153359235206</v>
+        <v>0.06316063305946568</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07955251785698504</v>
+        <v>0.08076170500896492</v>
       </c>
     </row>
     <row r="13">
@@ -3338,19 +3338,19 @@
         <v>21694</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13755</v>
+        <v>13283</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37100</v>
+        <v>34166</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01105864483057174</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007011750072712564</v>
+        <v>0.006770958618187091</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01891214354114227</v>
+        <v>0.01741640169806896</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -3359,19 +3359,19 @@
         <v>24474</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15944</v>
+        <v>15793</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38452</v>
+        <v>37106</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01394797865348177</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00908655435314841</v>
+        <v>0.009000666823907695</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02191405571058339</v>
+        <v>0.02114734108637657</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -3380,19 +3380,19 @@
         <v>46168</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33090</v>
+        <v>33889</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>62090</v>
+        <v>62733</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01242282550583216</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008903892290861821</v>
+        <v>0.009118843760984163</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01670733345722676</v>
+        <v>0.01688019893152474</v>
       </c>
     </row>
     <row r="14">
@@ -3409,19 +3409,19 @@
         <v>2868</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8250</v>
+        <v>7777</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001462202096662786</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0004476902589175833</v>
+        <v>0.0004451802355452914</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.004205521032724501</v>
+        <v>0.003964423085322483</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -3430,19 +3430,19 @@
         <v>6526</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3008</v>
+        <v>2304</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14057</v>
+        <v>13880</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003719421349809107</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001714577369078409</v>
+        <v>0.001312920344901423</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.00801149896280994</v>
+        <v>0.00791034087624118</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -3451,19 +3451,19 @@
         <v>9395</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4041</v>
+        <v>4434</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16797</v>
+        <v>18272</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00252793387903837</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001087426550573736</v>
+        <v>0.001193137204944908</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.004519694954001514</v>
+        <v>0.004916589103839966</v>
       </c>
     </row>
     <row r="15">
@@ -3555,19 +3555,19 @@
         <v>328519</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>305686</v>
+        <v>307290</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>349958</v>
+        <v>349426</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6857212781583871</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6380627799582718</v>
+        <v>0.641410908138945</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7304724343802513</v>
+        <v>0.7293619381221509</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>290</v>
@@ -3576,19 +3576,19 @@
         <v>320826</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>296028</v>
+        <v>296435</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>340126</v>
+        <v>336944</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7013044509028261</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6470988900887735</v>
+        <v>0.6479867827344153</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7434941328077607</v>
+        <v>0.7365377165060729</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>593</v>
@@ -3597,19 +3597,19 @@
         <v>649345</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>620507</v>
+        <v>616887</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>679569</v>
+        <v>678102</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6933330439731025</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6625418979821358</v>
+        <v>0.6586771266177849</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7256051141209372</v>
+        <v>0.7240385522974389</v>
       </c>
     </row>
     <row r="17">
@@ -3626,19 +3626,19 @@
         <v>122264</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>103568</v>
+        <v>102603</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>143060</v>
+        <v>143097</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2552037195147952</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2161792379403819</v>
+        <v>0.2141636709773546</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2986115820871117</v>
+        <v>0.2986884482951399</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>104</v>
@@ -3647,19 +3647,19 @@
         <v>117700</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>99370</v>
+        <v>102029</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>137263</v>
+        <v>140559</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2572853338498159</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.217215497093317</v>
+        <v>0.2230293184639104</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3000474007372184</v>
+        <v>0.3072520700330616</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>213</v>
@@ -3668,19 +3668,19 @@
         <v>239965</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>212952</v>
+        <v>212657</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>270392</v>
+        <v>270553</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2562205060892998</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2273780285990452</v>
+        <v>0.2270628801059898</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2887096649704808</v>
+        <v>0.288881402064485</v>
       </c>
     </row>
     <row r="18">
@@ -3697,19 +3697,19 @@
         <v>20881</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13068</v>
+        <v>12600</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34036</v>
+        <v>32129</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04358617295216455</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02727643838785204</v>
+        <v>0.02629993176052527</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07104431610741804</v>
+        <v>0.06706344187384122</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -3718,19 +3718,19 @@
         <v>17985</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10386</v>
+        <v>10322</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28216</v>
+        <v>28355</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03931408108699723</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02270236321706724</v>
+        <v>0.02256319441131194</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06167795857776753</v>
+        <v>0.06198168838100725</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>34</v>
@@ -3739,19 +3739,19 @@
         <v>38866</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>27703</v>
+        <v>27759</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>54206</v>
+        <v>54589</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0414994244222024</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02958013506060602</v>
+        <v>0.02963938702964459</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05787821081341595</v>
+        <v>0.05828677786502311</v>
       </c>
     </row>
     <row r="19">
@@ -3768,19 +3768,19 @@
         <v>4024</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1016</v>
+        <v>1030</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9637</v>
+        <v>10027</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008398354359847236</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002119724073725387</v>
+        <v>0.002149689953523745</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02011530251322728</v>
+        <v>0.02092931078465479</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4829</v>
+        <v>4768</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002096134160360846</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01055649183103035</v>
+        <v>0.01042354679402421</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -3810,19 +3810,19 @@
         <v>4982</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1940</v>
+        <v>1896</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11008</v>
+        <v>11079</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.005319968137864408</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002071623215690969</v>
+        <v>0.002024461500769818</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01175338412429239</v>
+        <v>0.01182992216511762</v>
       </c>
     </row>
     <row r="20">
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11348</v>
+        <v>13081</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007090475014805902</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02368614692081926</v>
+        <v>0.02730490204931134</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11204</v>
+        <v>12535</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.003627057377530895</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01196275659162953</v>
+        <v>0.01338433396693176</v>
       </c>
     </row>
     <row r="21">
@@ -3977,19 +3977,19 @@
         <v>2252850</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2195605</v>
+        <v>2189985</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2311845</v>
+        <v>2307550</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6609516073630091</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6441568774837747</v>
+        <v>0.642507981749038</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6782596641415268</v>
+        <v>0.676999577912054</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2089</v>
@@ -3998,19 +3998,19 @@
         <v>2250571</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2187563</v>
+        <v>2193008</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2307690</v>
+        <v>2309784</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6349079223580879</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6171326205170593</v>
+        <v>0.618668648025659</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6510216648627594</v>
+        <v>0.6516122741443319</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4206</v>
@@ -4019,19 +4019,19 @@
         <v>4503422</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4423690</v>
+        <v>4421549</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4588111</v>
+        <v>4587352</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6476746436460591</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6362078206644866</v>
+        <v>0.6358998583074341</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6598545154921468</v>
+        <v>0.6597453410031062</v>
       </c>
     </row>
     <row r="23">
@@ -4048,19 +4048,19 @@
         <v>833861</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>776114</v>
+        <v>786738</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>885656</v>
+        <v>891888</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2446419349596209</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2276997793336131</v>
+        <v>0.2308167442724412</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2598378413229794</v>
+        <v>0.2616662113090751</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>890</v>
@@ -4069,19 +4069,19 @@
         <v>961438</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>908073</v>
+        <v>906926</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1014983</v>
+        <v>1011737</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2712309684621495</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2561761212096715</v>
+        <v>0.2558526005214299</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2863365861960059</v>
+        <v>0.285420799098454</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1669</v>
@@ -4090,19 +4090,19 @@
         <v>1795299</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1715459</v>
+        <v>1713694</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1867326</v>
+        <v>1871270</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.258196915102221</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2467144548810004</v>
+        <v>0.2464606600441872</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2685557043830971</v>
+        <v>0.2691228801928049</v>
       </c>
     </row>
     <row r="24">
@@ -4119,19 +4119,19 @@
         <v>260391</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>230535</v>
+        <v>228844</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>295210</v>
+        <v>294170</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0763946719543518</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06763537317949717</v>
+        <v>0.0671391793638105</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08661021396029885</v>
+        <v>0.08630496472455251</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>241</v>
@@ -4140,19 +4140,19 @@
         <v>262002</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>230242</v>
+        <v>230647</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>296539</v>
+        <v>296973</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07391338662361123</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06495362487164059</v>
+        <v>0.06506788372273094</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0836565209075201</v>
+        <v>0.08377881284705277</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>480</v>
@@ -4161,19 +4161,19 @@
         <v>522393</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>477931</v>
+        <v>478838</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>569511</v>
+        <v>571980</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07512972287739063</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06873518186501403</v>
+        <v>0.06886566017019272</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08190617728004856</v>
+        <v>0.08226125796478394</v>
       </c>
     </row>
     <row r="25">
@@ -4190,19 +4190,19 @@
         <v>45342</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>32819</v>
+        <v>32775</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>61619</v>
+        <v>61041</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01330256875687718</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00962852816389272</v>
+        <v>0.009615674812276981</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01807821275640052</v>
+        <v>0.01790836146524378</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>48</v>
@@ -4211,19 +4211,19 @@
         <v>53307</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39658</v>
+        <v>39971</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>71035</v>
+        <v>69636</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01503830510074136</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01118794327683249</v>
+        <v>0.01127619745664805</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02003972895421176</v>
+        <v>0.01964511530472728</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>90</v>
@@ -4232,19 +4232,19 @@
         <v>98648</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>79366</v>
+        <v>80656</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>121158</v>
+        <v>120524</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01418744002049911</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01141427363932394</v>
+        <v>0.01159974157511733</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01742479783497249</v>
+        <v>0.01733357639113315</v>
       </c>
     </row>
     <row r="26">
@@ -4261,19 +4261,19 @@
         <v>16051</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8959</v>
+        <v>8795</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>28447</v>
+        <v>28332</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.004709216966141079</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00262836906016987</v>
+        <v>0.002580173347268074</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.008346029941351404</v>
+        <v>0.008312291984098939</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>17</v>
@@ -4282,19 +4282,19 @@
         <v>17403</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9946</v>
+        <v>10472</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26484</v>
+        <v>27689</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.004909417455410037</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00280589865115927</v>
+        <v>0.002954163742663029</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.007471388323943585</v>
+        <v>0.007811379098508816</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>31</v>
@@ -4303,19 +4303,19 @@
         <v>33454</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>22944</v>
+        <v>23009</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>48738</v>
+        <v>45712</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00481127835383016</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0032997856578912</v>
+        <v>0.003309110670872372</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.007009467461276157</v>
+        <v>0.006574250885816057</v>
       </c>
     </row>
     <row r="27">
@@ -4646,19 +4646,19 @@
         <v>361074</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>333887</v>
+        <v>334821</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>389578</v>
+        <v>387655</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4793772361634958</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4432824249326272</v>
+        <v>0.4445221786342899</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5172199519277082</v>
+        <v>0.5146669599604538</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>424</v>
@@ -4667,19 +4667,19 @@
         <v>475548</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>443416</v>
+        <v>444209</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>509459</v>
+        <v>509725</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4787123477522565</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4463673150770671</v>
+        <v>0.4471650844163934</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5128497518290249</v>
+        <v>0.5131172955830786</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>789</v>
@@ -4688,19 +4688,19 @@
         <v>836622</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>792952</v>
+        <v>792018</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>881166</v>
+        <v>875586</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4789990777572641</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4539962952554314</v>
+        <v>0.4534617362059736</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.50450221130324</v>
+        <v>0.5013075993363477</v>
       </c>
     </row>
     <row r="5">
@@ -4717,19 +4717,19 @@
         <v>245870</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>220068</v>
+        <v>222014</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>272690</v>
+        <v>271985</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3264279088489094</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2921720017295341</v>
+        <v>0.294755120079448</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3620343467667683</v>
+        <v>0.3610983646766512</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>289</v>
@@ -4738,19 +4738,19 @@
         <v>317027</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>287179</v>
+        <v>287468</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>347129</v>
+        <v>347630</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3191368608710406</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2890901634029446</v>
+        <v>0.2893815628134094</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3494387749110599</v>
+        <v>0.349943551456597</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>537</v>
@@ -4759,19 +4759,19 @@
         <v>562897</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>525087</v>
+        <v>522167</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>605714</v>
+        <v>600512</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3222810910724794</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3006332019733507</v>
+        <v>0.298961377259697</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3467954568447637</v>
+        <v>0.3438171540128326</v>
       </c>
     </row>
     <row r="6">
@@ -4788,19 +4788,19 @@
         <v>104761</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>86758</v>
+        <v>86076</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>123686</v>
+        <v>123604</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1390850516626233</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1151829782163865</v>
+        <v>0.1142787356666237</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1642108797295531</v>
+        <v>0.1641017015746804</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>143</v>
@@ -4809,19 +4809,19 @@
         <v>160484</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>139346</v>
+        <v>138134</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>185679</v>
+        <v>185520</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1615524749747564</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1402728892984057</v>
+        <v>0.1390530328749462</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1869145069102582</v>
+        <v>0.1867543175351731</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>248</v>
@@ -4830,19 +4830,19 @@
         <v>265245</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>231882</v>
+        <v>236477</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>296729</v>
+        <v>297703</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1518635041792072</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1327614572388199</v>
+        <v>0.1353924546954657</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1698891824815489</v>
+        <v>0.170446721325058</v>
       </c>
     </row>
     <row r="7">
@@ -4859,19 +4859,19 @@
         <v>32779</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23121</v>
+        <v>22439</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45157</v>
+        <v>45694</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04351830533152681</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03069666863633621</v>
+        <v>0.02979081282819427</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05995200790779275</v>
+        <v>0.06066569092008359</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -4880,19 +4880,19 @@
         <v>30186</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20353</v>
+        <v>20250</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44320</v>
+        <v>42678</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03038685656407948</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02048831079512321</v>
+        <v>0.02038443640029775</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04461460791523379</v>
+        <v>0.04296180444465933</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>61</v>
@@ -4901,19 +4901,19 @@
         <v>62965</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>48096</v>
+        <v>47556</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>79426</v>
+        <v>79972</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03604973217929697</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02753702202637799</v>
+        <v>0.027227847816152</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04547429560601632</v>
+        <v>0.04578696235803845</v>
       </c>
     </row>
     <row r="8">
@@ -4930,19 +4930,19 @@
         <v>8731</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3981</v>
+        <v>3900</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15387</v>
+        <v>15660</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01159149799344458</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.00528548521363695</v>
+        <v>0.005177232397644663</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02042780162980575</v>
+        <v>0.02079127509940504</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -4951,19 +4951,19 @@
         <v>10144</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4697</v>
+        <v>4745</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19546</v>
+        <v>19326</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01021145983786706</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004728151789138484</v>
+        <v>0.004776351685276853</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01967609743963794</v>
+        <v>0.01945444001386177</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>17</v>
@@ -4972,19 +4972,19 @@
         <v>18875</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11364</v>
+        <v>11264</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>31145</v>
+        <v>31492</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01080659481175227</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006506484428240433</v>
+        <v>0.006449192764049605</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01783196121912383</v>
+        <v>0.01803050276433853</v>
       </c>
     </row>
     <row r="9">
@@ -5076,19 +5076,19 @@
         <v>1147849</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1100224</v>
+        <v>1099878</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1196849</v>
+        <v>1194974</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5537451436443824</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5307699490883636</v>
+        <v>0.5306030107527712</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5773837152859305</v>
+        <v>0.576479274019676</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1007</v>
@@ -5097,19 +5097,19 @@
         <v>1039641</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>997641</v>
+        <v>996075</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1082924</v>
+        <v>1081618</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5243224095741795</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5031405753027277</v>
+        <v>0.5023506364465092</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5461514206490613</v>
+        <v>0.5454928290843113</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2077</v>
@@ -5118,19 +5118,19 @@
         <v>2187490</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2125566</v>
+        <v>2123777</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2250678</v>
+        <v>2251451</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5393604357418139</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5240921955718947</v>
+        <v>0.5236509452382053</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5549404996049155</v>
+        <v>0.5551309443397737</v>
       </c>
     </row>
     <row r="11">
@@ -5147,19 +5147,19 @@
         <v>647691</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>602646</v>
+        <v>602602</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>695938</v>
+        <v>689675</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3124591344630033</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2907285663718102</v>
+        <v>0.2907070856961984</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.335734376791079</v>
+        <v>0.3327131299510098</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>641</v>
@@ -5168,19 +5168,19 @@
         <v>671371</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>628030</v>
+        <v>629850</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>713308</v>
+        <v>714623</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3385925159818894</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3167345361779476</v>
+        <v>0.3176521849302593</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3597426466758873</v>
+        <v>0.3604060806981292</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1258</v>
@@ -5189,19 +5189,19 @@
         <v>1319062</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1260182</v>
+        <v>1252970</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1381006</v>
+        <v>1374354</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3252356853694761</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3107178075226595</v>
+        <v>0.3089396402705172</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.340508899090297</v>
+        <v>0.3388689425489037</v>
       </c>
     </row>
     <row r="12">
@@ -5218,19 +5218,19 @@
         <v>231153</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>204910</v>
+        <v>201174</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>266060</v>
+        <v>258574</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.111512625078877</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09885279739599417</v>
+        <v>0.0970501486474226</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1283526635514989</v>
+        <v>0.1247414404202295</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>224</v>
@@ -5239,19 +5239,19 @@
         <v>237138</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>210119</v>
+        <v>208351</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>266638</v>
+        <v>268454</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1195960616224807</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1059696030157543</v>
+        <v>0.1050775626532245</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1344733408747358</v>
+        <v>0.1353894768985053</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>444</v>
@@ -5260,19 +5260,19 @@
         <v>468291</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>428339</v>
+        <v>428880</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>512120</v>
+        <v>513850</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.115464598857087</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1056138044146692</v>
+        <v>0.1057471533475037</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1262713174079671</v>
+        <v>0.1266979261246061</v>
       </c>
     </row>
     <row r="13">
@@ -5289,19 +5289,19 @@
         <v>35925</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25739</v>
+        <v>23756</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49926</v>
+        <v>49453</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01733081268414917</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01241723872943054</v>
+        <v>0.01146053352732766</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02408552192929702</v>
+        <v>0.02385731663874217</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -5310,19 +5310,19 @@
         <v>29418</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19574</v>
+        <v>19177</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40885</v>
+        <v>43083</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01483636506674256</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009871619007387976</v>
+        <v>0.009671622702867064</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02061968098371425</v>
+        <v>0.02172798463507</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>58</v>
@@ -5331,19 +5331,19 @@
         <v>65343</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>51056</v>
+        <v>50308</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>85431</v>
+        <v>83329</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01611128290594985</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01258868281019642</v>
+        <v>0.01240430120470945</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02106440682530445</v>
+        <v>0.02054617615515303</v>
       </c>
     </row>
     <row r="14">
@@ -5360,19 +5360,19 @@
         <v>10266</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4961</v>
+        <v>5007</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18319</v>
+        <v>18067</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0049522841295881</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002393184116277849</v>
+        <v>0.002415598698494238</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.008837291281781477</v>
+        <v>0.008716025972309908</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -5381,19 +5381,19 @@
         <v>5260</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2037</v>
+        <v>2063</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12413</v>
+        <v>11602</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002652647754707748</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001027563233646877</v>
+        <v>0.001040352518673031</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.006260497344086144</v>
+        <v>0.005851101273882122</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -5402,19 +5402,19 @@
         <v>15525</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9253</v>
+        <v>9049</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>25476</v>
+        <v>26211</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.003827997125673125</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00228148748283254</v>
+        <v>0.002231297896634929</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.00628141799408741</v>
+        <v>0.006462755844196894</v>
       </c>
     </row>
     <row r="15">
@@ -5506,19 +5506,19 @@
         <v>333978</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>309427</v>
+        <v>309110</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>355851</v>
+        <v>356827</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6116570729896826</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5666942845012382</v>
+        <v>0.5661137707831548</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6517172016442886</v>
+        <v>0.6535048050394928</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>324</v>
@@ -5527,19 +5527,19 @@
         <v>335198</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>311755</v>
+        <v>312510</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>357790</v>
+        <v>357299</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6151520638972164</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5721285137135067</v>
+        <v>0.5735141869295393</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6566128266891955</v>
+        <v>0.6557103026408714</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>630</v>
@@ -5548,19 +5548,19 @@
         <v>669176</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>634221</v>
+        <v>634837</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>701661</v>
+        <v>702785</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6134027771346695</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.581361540328967</v>
+        <v>0.5819261970459627</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.643180778338588</v>
+        <v>0.6442109396668585</v>
       </c>
     </row>
     <row r="17">
@@ -5577,19 +5577,19 @@
         <v>152341</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>133009</v>
+        <v>132982</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>173263</v>
+        <v>175646</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2790016647408866</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.243596192363593</v>
+        <v>0.2435475641432564</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.317318845803976</v>
+        <v>0.3216843687285313</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>146</v>
@@ -5598,19 +5598,19 @@
         <v>153877</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>133382</v>
+        <v>134613</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>174539</v>
+        <v>174663</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2823928887835885</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2447813925754169</v>
+        <v>0.2470394044364555</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3203114750899891</v>
+        <v>0.320539016317651</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>287</v>
@@ -5619,19 +5619,19 @@
         <v>306217</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>275710</v>
+        <v>278645</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>337011</v>
+        <v>336922</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.280695538637715</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2527304874586779</v>
+        <v>0.2554211724036918</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3089223473084872</v>
+        <v>0.3088410162313585</v>
       </c>
     </row>
     <row r="18">
@@ -5648,19 +5648,19 @@
         <v>55628</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>42325</v>
+        <v>42059</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>73155</v>
+        <v>73878</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1018784316023318</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07751491749428503</v>
+        <v>0.07702813073720971</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1339777551745214</v>
+        <v>0.1353025334276116</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>45</v>
@@ -5669,19 +5669,19 @@
         <v>48052</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>36753</v>
+        <v>35561</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>63857</v>
+        <v>61691</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08818462323469689</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06744928466903179</v>
+        <v>0.06526200796483861</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1171892882171726</v>
+        <v>0.1132146281948307</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>94</v>
@@ -5690,19 +5690,19 @@
         <v>103680</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>83611</v>
+        <v>85149</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>124737</v>
+        <v>125147</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09503854598875108</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07664243407665117</v>
+        <v>0.07805217429456252</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1143410857646558</v>
+        <v>0.1147161852458161</v>
       </c>
     </row>
     <row r="19">
@@ -5719,19 +5719,19 @@
         <v>3082</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9275</v>
+        <v>8561</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00564435766332712</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001854740228316145</v>
+        <v>0.001860679194388597</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01698610349733132</v>
+        <v>0.01567959080464429</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -5740,19 +5740,19 @@
         <v>5957</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2121</v>
+        <v>2011</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12115</v>
+        <v>12251</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01093169801479841</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003892719679769485</v>
+        <v>0.003689945834081784</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02223413864659464</v>
+        <v>0.02248251504576185</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -5761,19 +5761,19 @@
         <v>9039</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4151</v>
+        <v>4058</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16788</v>
+        <v>16615</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.008285317886606445</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003805441587832118</v>
+        <v>0.003719622663342766</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01538899951401807</v>
+        <v>0.01523035157912327</v>
       </c>
     </row>
     <row r="20">
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5049</v>
+        <v>5027</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001818473003771733</v>
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.009247531773302118</v>
+        <v>0.00920595677989376</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9411</v>
+        <v>8374</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003338726069699705</v>
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01727120486824841</v>
+        <v>0.01536754354916546</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10122</v>
+        <v>10216</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002577820352258007</v>
@@ -5844,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.009278295951828509</v>
+        <v>0.009364995500150569</v>
       </c>
     </row>
     <row r="21">
@@ -5936,19 +5936,19 @@
         <v>1842901</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1787302</v>
+        <v>1785580</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1897249</v>
+        <v>1899803</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5465111563545634</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5300233232169417</v>
+        <v>0.5295127362171396</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.562628032243668</v>
+        <v>0.5633856245688258</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1755</v>
@@ -5957,19 +5957,19 @@
         <v>1850387</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1786880</v>
+        <v>1790812</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1911630</v>
+        <v>1916569</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5255108943687217</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5074749666142042</v>
+        <v>0.5085915007709195</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5429040387045724</v>
+        <v>0.5443065481675315</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3496</v>
@@ -5978,19 +5978,19 @@
         <v>3693287</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3613912</v>
+        <v>3615860</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3781492</v>
+        <v>3783139</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5357840595276001</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5242690944377179</v>
+        <v>0.5245516954986351</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5485798718474846</v>
+        <v>0.5488189195552963</v>
       </c>
     </row>
     <row r="23">
@@ -6007,19 +6007,19 @@
         <v>1045902</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>992523</v>
+        <v>993072</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1100944</v>
+        <v>1101802</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3101617661551799</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2943321401216393</v>
+        <v>0.2944950312497961</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3264843608083091</v>
+        <v>0.3267388644051736</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1076</v>
@@ -6028,19 +6028,19 @@
         <v>1142275</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1088461</v>
+        <v>1086844</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1198340</v>
+        <v>1200778</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3244065818890615</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3091236058391648</v>
+        <v>0.3086642042266723</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3403292925500236</v>
+        <v>0.3410217158422081</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2082</v>
@@ -6049,19 +6049,19 @@
         <v>2188177</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2105431</v>
+        <v>2109244</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2265412</v>
+        <v>2263598</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3174381286006874</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3054342717013381</v>
+        <v>0.3059874143617279</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3286426843068921</v>
+        <v>0.32837948847205</v>
       </c>
     </row>
     <row r="24">
@@ -6078,19 +6078,19 @@
         <v>391541</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>356995</v>
+        <v>354390</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>430081</v>
+        <v>431668</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1161113610029375</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.105866575348419</v>
+        <v>0.1050942342314685</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.127540135761212</v>
+        <v>0.1280108344555471</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>412</v>
@@ -6099,19 +6099,19 @@
         <v>445675</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>407956</v>
+        <v>405702</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>486866</v>
+        <v>488618</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.126571928523346</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1158597652131768</v>
+        <v>0.1152194660761703</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1382703514611547</v>
+        <v>0.138767836380228</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>786</v>
@@ -6120,19 +6120,19 @@
         <v>837216</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>781680</v>
+        <v>787649</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>892514</v>
+        <v>898557</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1214547000875671</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1133981023380746</v>
+        <v>0.1142640800420051</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1294766894773508</v>
+        <v>0.130353365407775</v>
       </c>
     </row>
     <row r="25">
@@ -6149,19 +6149,19 @@
         <v>71785</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>56876</v>
+        <v>55763</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>91687</v>
+        <v>91203</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02128789543134355</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01686645506752629</v>
+        <v>0.01653660445064011</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02718986620489138</v>
+        <v>0.02704607403643847</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>59</v>
@@ -6170,19 +6170,19 @@
         <v>65561</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>50082</v>
+        <v>50771</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>84426</v>
+        <v>82716</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01861925968866036</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01422335433906539</v>
+        <v>0.01441912042004444</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02397706449173997</v>
+        <v>0.02349135850138445</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>128</v>
@@ -6191,19 +6191,19 @@
         <v>137346</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>114203</v>
+        <v>115280</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>161315</v>
+        <v>166249</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01992473557995895</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0165674018411125</v>
+        <v>0.01672370156935825</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02340188991647122</v>
+        <v>0.02411762898504597</v>
       </c>
     </row>
     <row r="26">
@@ -6220,19 +6220,19 @@
         <v>19989</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12335</v>
+        <v>12765</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>30465</v>
+        <v>30219</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.005927821055975605</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003658005699992359</v>
+        <v>0.003785460352303086</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.009034377429762258</v>
+        <v>0.008961351991701753</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -6241,19 +6241,19 @@
         <v>17223</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10082</v>
+        <v>9559</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>28702</v>
+        <v>29128</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.004891335530210535</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002863244687574928</v>
+        <v>0.002714873709979033</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.008151285387671582</v>
+        <v>0.008272330701843224</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>34</v>
@@ -6262,19 +6262,19 @@
         <v>37212</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>26577</v>
+        <v>26383</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>52210</v>
+        <v>50438</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.005398376204186428</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003855502444700503</v>
+        <v>0.003827381544467377</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.007574121729795632</v>
+        <v>0.007316959983180668</v>
       </c>
     </row>
     <row r="27">
@@ -6605,19 +6605,19 @@
         <v>310535</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>286033</v>
+        <v>288592</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>334218</v>
+        <v>335453</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5375225768682166</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.495110025804912</v>
+        <v>0.499539469863832</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5785157334747394</v>
+        <v>0.5806539082294948</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>721</v>
@@ -6626,19 +6626,19 @@
         <v>414250</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>393026</v>
+        <v>395009</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>435749</v>
+        <v>438406</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5066316981153117</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4806741698670848</v>
+        <v>0.4830988549571115</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5329244048992613</v>
+        <v>0.5361744492793937</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1082</v>
@@ -6647,19 +6647,19 @@
         <v>724785</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>693997</v>
+        <v>693098</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>760977</v>
+        <v>760501</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5194212286064086</v>
+        <v>0.5194212286064087</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4973563172168111</v>
+        <v>0.4967125715267688</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5453580661719087</v>
+        <v>0.5450170750400662</v>
       </c>
     </row>
     <row r="5">
@@ -6676,19 +6676,19 @@
         <v>144232</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>124959</v>
+        <v>124165</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>164656</v>
+        <v>165500</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2496593222400635</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2162986580003725</v>
+        <v>0.2149243255392722</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2850114353491611</v>
+        <v>0.2864736537627711</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>404</v>
@@ -6697,19 +6697,19 @@
         <v>232771</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>213414</v>
+        <v>211923</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>252792</v>
+        <v>252047</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2846803063228466</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2610066071343094</v>
+        <v>0.2591833905059339</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3091670998747255</v>
+        <v>0.3082561476191955</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>584</v>
@@ -6718,19 +6718,19 @@
         <v>377002</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>350519</v>
+        <v>347862</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>408597</v>
+        <v>406858</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2701808177411935</v>
+        <v>0.2701808177411936</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2512014856105915</v>
+        <v>0.2492970848204676</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.292822903145329</v>
+        <v>0.291576680252249</v>
       </c>
     </row>
     <row r="6">
@@ -6747,19 +6747,19 @@
         <v>62659</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>50711</v>
+        <v>48062</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>78883</v>
+        <v>77953</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1084601296537584</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08777846410670574</v>
+        <v>0.08319262120434749</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1365427835465044</v>
+        <v>0.1349323982114583</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>179</v>
@@ -6768,19 +6768,19 @@
         <v>98180</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>85319</v>
+        <v>86154</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>113299</v>
+        <v>115561</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1200747221447899</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1043459198278578</v>
+        <v>0.1053669953317191</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.138565391738179</v>
+        <v>0.1413318055552872</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>258</v>
@@ -6789,19 +6789,19 @@
         <v>160839</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>142429</v>
+        <v>143344</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>181614</v>
+        <v>181429</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1152660151476882</v>
+        <v>0.1152660151476883</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1020721734999254</v>
+        <v>0.102728443922335</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1301542857139255</v>
+        <v>0.1300222976942167</v>
       </c>
     </row>
     <row r="7">
@@ -6818,19 +6818,19 @@
         <v>43494</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32598</v>
+        <v>31100</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60489</v>
+        <v>60064</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.07528599813570723</v>
+        <v>0.07528599813570722</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0564255165224203</v>
+        <v>0.0538324403032543</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.104703666914109</v>
+        <v>0.1039683479897203</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>86</v>
@@ -6839,19 +6839,19 @@
         <v>53453</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42496</v>
+        <v>43213</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66208</v>
+        <v>66321</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06537365897654496</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05197266228662657</v>
+        <v>0.05285018110133805</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08097336993779662</v>
+        <v>0.08111091184130924</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>133</v>
@@ -6860,19 +6860,19 @@
         <v>96947</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>80942</v>
+        <v>80522</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>119951</v>
+        <v>116554</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06947759415198175</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05800725101117574</v>
+        <v>0.05770624200628654</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08596324528918152</v>
+        <v>0.08352922006375398</v>
       </c>
     </row>
     <row r="8">
@@ -6889,19 +6889,19 @@
         <v>16795</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10865</v>
+        <v>10607</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24559</v>
+        <v>24472</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02907197310225437</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01880686760764937</v>
+        <v>0.01836020807819106</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04251102165018598</v>
+        <v>0.0423591703400518</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -6910,19 +6910,19 @@
         <v>19002</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13094</v>
+        <v>12876</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26583</v>
+        <v>25956</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02323961444050683</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01601370726015424</v>
+        <v>0.01574703520352859</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03251112941199343</v>
+        <v>0.03174417136074094</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>54</v>
@@ -6931,19 +6931,19 @@
         <v>35797</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>26713</v>
+        <v>26646</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>45931</v>
+        <v>46503</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02565434435272789</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01914430429777588</v>
+        <v>0.01909607848647961</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03291639252827319</v>
+        <v>0.03332663391748669</v>
       </c>
     </row>
     <row r="9">
@@ -7035,19 +7035,19 @@
         <v>1383633</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1332284</v>
+        <v>1334792</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1435892</v>
+        <v>1436838</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6210584241366153</v>
+        <v>0.6210584241366154</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5980099118972726</v>
+        <v>0.5991355789606896</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6445155018308796</v>
+        <v>0.6449398602245152</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1713</v>
@@ -7056,19 +7056,19 @@
         <v>1327045</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1285549</v>
+        <v>1287272</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1367552</v>
+        <v>1369339</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.611637089797365</v>
+        <v>0.6116370897973649</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5925116744532857</v>
+        <v>0.593305825898013</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6303069762342027</v>
+        <v>0.6311304589531003</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2848</v>
@@ -7077,19 +7077,19 @@
         <v>2710678</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2645284</v>
+        <v>2635632</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2770686</v>
+        <v>2770778</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6164101044069967</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6015394083094204</v>
+        <v>0.5993446089747118</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6300558112525401</v>
+        <v>0.6300768696340817</v>
       </c>
     </row>
     <row r="11">
@@ -7106,19 +7106,19 @@
         <v>641979</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>591818</v>
+        <v>593616</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>685090</v>
+        <v>688213</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2881592703677874</v>
+        <v>0.2881592703677875</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2656437954026268</v>
+        <v>0.2664510690013295</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3075100155043893</v>
+        <v>0.3089115489818099</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>922</v>
@@ -7127,19 +7127,19 @@
         <v>634702</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>597109</v>
+        <v>599311</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>671999</v>
+        <v>672988</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2925351336131204</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2752085247909745</v>
+        <v>0.2762235288764053</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3097253814566412</v>
+        <v>0.3101815176041356</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1562</v>
@@ -7148,19 +7148,19 @@
         <v>1276681</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1220774</v>
+        <v>1220673</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1339976</v>
+        <v>1340550</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.290318243897965</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2776048950471796</v>
+        <v>0.2775818672262144</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.304711363358688</v>
+        <v>0.3048420127715157</v>
       </c>
     </row>
     <row r="12">
@@ -7177,19 +7177,19 @@
         <v>110262</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>91414</v>
+        <v>90481</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>132758</v>
+        <v>129673</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.04949242377401707</v>
+        <v>0.04949242377401708</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04103198017323061</v>
+        <v>0.0406135560838703</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0595896410653892</v>
+        <v>0.05820521342968153</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>162</v>
@@ -7198,19 +7198,19 @@
         <v>120727</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>102737</v>
+        <v>102290</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>146056</v>
+        <v>142245</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05564324657986696</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04735186306025733</v>
+        <v>0.0471454915395805</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06731768586225287</v>
+        <v>0.06556113816789386</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>277</v>
@@ -7219,19 +7219,19 @@
         <v>230989</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>203022</v>
+        <v>203758</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>263228</v>
+        <v>263926</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05252713095797797</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04616728875980519</v>
+        <v>0.04633470190118063</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0598582721260902</v>
+        <v>0.06001691581382726</v>
       </c>
     </row>
     <row r="13">
@@ -7248,19 +7248,19 @@
         <v>73664</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>59119</v>
+        <v>58447</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>91369</v>
+        <v>92887</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03306474870935672</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02653601234434813</v>
+        <v>0.02623464286548097</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0410117891136557</v>
+        <v>0.04169324127965891</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>98</v>
@@ -7269,19 +7269,19 @@
         <v>70655</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57302</v>
+        <v>57639</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85524</v>
+        <v>86892</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03256505059708122</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02641057189953689</v>
+        <v>0.02656597907847671</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0394183289462675</v>
+        <v>0.04004878063784659</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>179</v>
@@ -7290,19 +7290,19 @@
         <v>144319</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>123028</v>
+        <v>123427</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>167360</v>
+        <v>167602</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03281820649882647</v>
+        <v>0.03281820649882646</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02797670871191211</v>
+        <v>0.02806746805151683</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03805785867901471</v>
+        <v>0.03811278437779751</v>
       </c>
     </row>
     <row r="14">
@@ -7319,19 +7319,19 @@
         <v>18324</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11273</v>
+        <v>10707</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29406</v>
+        <v>27719</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.008225133012223397</v>
+        <v>0.008225133012223398</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005060228297862293</v>
+        <v>0.004806017269790842</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01319912419801568</v>
+        <v>0.01244199293608567</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -7340,19 +7340,19 @@
         <v>16532</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10416</v>
+        <v>10825</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26857</v>
+        <v>26722</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.007619479412566486</v>
+        <v>0.007619479412566485</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004800542111291169</v>
+        <v>0.004989372946484057</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01237824584161938</v>
+        <v>0.0123160566731996</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>42</v>
@@ -7361,19 +7361,19 @@
         <v>34856</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>24956</v>
+        <v>24980</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>47955</v>
+        <v>49102</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.007926314238233916</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005675076813601858</v>
+        <v>0.00568041103428674</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01090501546374528</v>
+        <v>0.01116590732272947</v>
       </c>
     </row>
     <row r="15">
@@ -7465,19 +7465,19 @@
         <v>487591</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>461084</v>
+        <v>460095</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>513572</v>
+        <v>512257</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6852169854797802</v>
+        <v>0.68521698547978</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6479656750934049</v>
+        <v>0.6465756174141535</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7217281150035574</v>
+        <v>0.7198796998032295</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>703</v>
@@ -7486,19 +7486,19 @@
         <v>532136</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>512162</v>
+        <v>509557</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>551905</v>
+        <v>553979</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7241153722076928</v>
+        <v>0.724115372207693</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6969352956672498</v>
+        <v>0.6933905435945398</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7510167038495019</v>
+        <v>0.7538387550758985</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1143</v>
@@ -7507,19 +7507,19 @@
         <v>1019727</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>986633</v>
+        <v>980883</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1051009</v>
+        <v>1052505</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7049793400936384</v>
+        <v>0.7049793400936383</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6820999715606061</v>
+        <v>0.6781244404130788</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7266058125146351</v>
+        <v>0.7276401626310826</v>
       </c>
     </row>
     <row r="17">
@@ -7536,19 +7536,19 @@
         <v>176746</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>154594</v>
+        <v>155841</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>200711</v>
+        <v>203342</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2483831921561447</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2172521585918743</v>
+        <v>0.2190044935801544</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.282061114983084</v>
+        <v>0.285758703823301</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>239</v>
@@ -7557,19 +7557,19 @@
         <v>155996</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>138377</v>
+        <v>137174</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>175181</v>
+        <v>174408</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2122747180610698</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1883000510844764</v>
+        <v>0.1866621927192051</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2383808203676697</v>
+        <v>0.2373297685815626</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>429</v>
@@ -7578,19 +7578,19 @@
         <v>332742</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>304639</v>
+        <v>302965</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>365060</v>
+        <v>365577</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2300382547523494</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.210609260631365</v>
+        <v>0.2094522945429049</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2523811181096871</v>
+        <v>0.2527382834219773</v>
       </c>
     </row>
     <row r="18">
@@ -7607,19 +7607,19 @@
         <v>26679</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16688</v>
+        <v>17517</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>36719</v>
+        <v>38727</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03749220846682694</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02345196028444515</v>
+        <v>0.02461678146112789</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05160164838105391</v>
+        <v>0.0544238378197765</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>40</v>
@@ -7628,19 +7628,19 @@
         <v>33595</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>24394</v>
+        <v>24151</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>46696</v>
+        <v>47073</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04571565662094625</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0331949702918999</v>
+        <v>0.03286450136992607</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0635420468847205</v>
+        <v>0.06405573353069921</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>70</v>
@@ -7649,19 +7649,19 @@
         <v>60274</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>46947</v>
+        <v>47263</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>76725</v>
+        <v>78060</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.04167013748242197</v>
+        <v>0.04167013748242196</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03245649613550078</v>
+        <v>0.03267472540260256</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05304317690734427</v>
+        <v>0.05396594484608719</v>
       </c>
     </row>
     <row r="19">
@@ -7678,19 +7678,19 @@
         <v>13190</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7692</v>
+        <v>7283</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22440</v>
+        <v>22066</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01853536373015692</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01081033226759074</v>
+        <v>0.01023509957157185</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03153463117190001</v>
+        <v>0.03100887161537782</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -7699,19 +7699,19 @@
         <v>7140</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4073</v>
+        <v>3966</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12294</v>
+        <v>11751</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.009715469704795499</v>
+        <v>0.009715469704795497</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005543007438802479</v>
+        <v>0.005396877702583641</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01672926936077471</v>
+        <v>0.01599097354241006</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>27</v>
@@ -7720,19 +7720,19 @@
         <v>20329</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13898</v>
+        <v>13351</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31314</v>
+        <v>30476</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01405440994137767</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009608518169139114</v>
+        <v>0.009230285896586823</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0216486597467089</v>
+        <v>0.02106907160697471</v>
       </c>
     </row>
     <row r="20">
@@ -7749,19 +7749,19 @@
         <v>7381</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3169</v>
+        <v>2990</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15166</v>
+        <v>15724</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01037225016709131</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004453287473366465</v>
+        <v>0.004201726432281756</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02131305440134156</v>
+        <v>0.0220977475265058</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -7770,19 +7770,19 @@
         <v>6010</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2630</v>
+        <v>2664</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10896</v>
+        <v>10838</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008178783405495499</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003579347243518549</v>
+        <v>0.003624544159661587</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01482679449412858</v>
+        <v>0.01474755899522951</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -7791,19 +7791,19 @@
         <v>13391</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7653</v>
+        <v>7736</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21811</v>
+        <v>21448</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.009257857730212647</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00529072496868591</v>
+        <v>0.005348144141866494</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01507907348444791</v>
+        <v>0.01482762735089694</v>
       </c>
     </row>
     <row r="21">
@@ -7895,19 +7895,19 @@
         <v>2181760</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2118515</v>
+        <v>2120273</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2238262</v>
+        <v>2246067</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6203176125775646</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6023357092017162</v>
+        <v>0.6028356991813009</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6363821324089597</v>
+        <v>0.6386012485056365</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3137</v>
@@ -7916,19 +7916,19 @@
         <v>2273431</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2223623</v>
+        <v>2225311</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2328241</v>
+        <v>2325631</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6107772461999138</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5973960300804407</v>
+        <v>0.5978493368666135</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6255026259392841</v>
+        <v>0.6248012799242463</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5073</v>
@@ -7937,19 +7937,19 @@
         <v>4455191</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4367771</v>
+        <v>4380889</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4534282</v>
+        <v>4545560</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6154123320621941</v>
+        <v>0.6154123320621939</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6033367197168846</v>
+        <v>0.6051487259317466</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6263374329027402</v>
+        <v>0.6278953324352963</v>
       </c>
     </row>
     <row r="23">
@@ -7966,19 +7966,19 @@
         <v>962958</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>907455</v>
+        <v>908183</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1026222</v>
+        <v>1021962</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.273787994886489</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2580073186125216</v>
+        <v>0.2582143902278418</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2917753141940513</v>
+        <v>0.2905641419689229</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1565</v>
@@ -7987,19 +7987,19 @@
         <v>1023468</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>975991</v>
+        <v>976521</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1068641</v>
+        <v>1067783</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2749637463732742</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2622085736383454</v>
+        <v>0.2623509719750619</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.287099882473904</v>
+        <v>0.2868692666576889</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2575</v>
@@ -8008,19 +8008,19 @@
         <v>1986426</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1919616</v>
+        <v>1913181</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2058562</v>
+        <v>2060806</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2743925199781622</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2651637482821759</v>
+        <v>0.2642749689322884</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2843569732732688</v>
+        <v>0.2846669238723277</v>
       </c>
     </row>
     <row r="24">
@@ -8037,19 +8037,19 @@
         <v>199600</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>174361</v>
+        <v>172135</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>230479</v>
+        <v>226340</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05675035912835315</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04957414975673777</v>
+        <v>0.04894150017983569</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06552979670338233</v>
+        <v>0.06435290855000819</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>381</v>
@@ -8058,19 +8058,19 @@
         <v>252502</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>227187</v>
+        <v>224936</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>281020</v>
+        <v>280274</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06783691534427819</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06103588928077466</v>
+        <v>0.06043100040363793</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07549845210506768</v>
+        <v>0.07529800816620139</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>605</v>
@@ -8079,19 +8079,19 @@
         <v>452103</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>415061</v>
+        <v>417546</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>490542</v>
+        <v>491525</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06245062954102139</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05733399839106176</v>
+        <v>0.05767722025288778</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06776043500409143</v>
+        <v>0.06789620344081485</v>
       </c>
     </row>
     <row r="25">
@@ -8108,19 +8108,19 @@
         <v>130347</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>109427</v>
+        <v>108878</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>154788</v>
+        <v>156783</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0370602810681704</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03111220725799455</v>
+        <v>0.03095607402226109</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04400924378591246</v>
+        <v>0.04457647627665846</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>197</v>
@@ -8129,19 +8129,19 @@
         <v>131248</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>113192</v>
+        <v>112777</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>152410</v>
+        <v>151554</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03526090792776081</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03041010614273059</v>
+        <v>0.03029866015411053</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04094638056923394</v>
+        <v>0.04071630437943786</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>339</v>
@@ -8150,19 +8150,19 @@
         <v>261595</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>233631</v>
+        <v>232879</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>290275</v>
+        <v>294779</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03613511429195423</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03227238658117548</v>
+        <v>0.03216840514430198</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04009678811978789</v>
+        <v>0.04071897264526714</v>
       </c>
     </row>
     <row r="26">
@@ -8179,19 +8179,19 @@
         <v>42501</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>29872</v>
+        <v>31403</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>57198</v>
+        <v>55833</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01208375233942292</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008493267816557825</v>
+        <v>0.008928379808360677</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01626254720607121</v>
+        <v>0.01587429473149581</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>63</v>
@@ -8200,19 +8200,19 @@
         <v>41544</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>32699</v>
+        <v>31803</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>54221</v>
+        <v>53726</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01116118415477303</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008784845749767874</v>
+        <v>0.008544113708738975</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0145669092012478</v>
+        <v>0.01443391556010772</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>112</v>
@@ -8221,19 +8221,19 @@
         <v>84045</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>68516</v>
+        <v>67642</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>101923</v>
+        <v>100915</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.0116094041266682</v>
+        <v>0.01160940412666819</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00946432619294226</v>
+        <v>0.009343584493430151</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01407900622195328</v>
+        <v>0.01393972914733199</v>
       </c>
     </row>
     <row r="27">
